--- a/Semester 1/Discrete Wiskunde/oefeningen/Velden/08.xlsx
+++ b/Semester 1/Discrete Wiskunde/oefeningen/Velden/08.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Irreducibele veelterm</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Veld</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <r>
       <t>x</t>
     </r>
@@ -438,38 +435,17 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + x + 1</t>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ x</t>
     </r>
   </si>
   <si>
@@ -485,38 +461,17 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + x + 1</t>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ x + 1</t>
     </r>
   </si>
   <si>
@@ -532,17 +487,17 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / x</t>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ x</t>
     </r>
     <r>
       <rPr>
@@ -553,17 +508,7 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + x + 1</t>
+      <t>2</t>
     </r>
   </si>
   <si>
@@ -589,7 +534,7 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t>+ x</t>
+      <t>+ 1</t>
     </r>
   </si>
   <si>
@@ -615,7 +560,7 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t>+ x + 1</t>
+      <t>+ x</t>
     </r>
   </si>
   <si>
@@ -631,28 +576,17 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>+ x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ x + 1</t>
     </r>
   </si>
   <si>
@@ -668,17 +602,17 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / x</t>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ x</t>
     </r>
     <r>
       <rPr>
@@ -689,17 +623,17 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + x + 1</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + 1</t>
     </r>
   </si>
   <si>
@@ -715,22 +649,17 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>+ 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ x</t>
     </r>
     <r>
       <rPr>
@@ -741,28 +670,7 @@
         <rFont val="Lucida Sans Typewriter"/>
         <family val="3"/>
       </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -774,390 +682,6 @@
       </rPr>
       <t xml:space="preserve"> + x + 1</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + x + 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + x + 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + x + 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + x + 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + x + 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>+ x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>+ x + 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>+ x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>+ x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + x + 1</t>
-    </r>
-  </si>
-  <si>
-    <t>x3 + x2 + x</t>
   </si>
   <si>
     <r>
@@ -1233,6 +757,664 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> + x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>= (x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>· x) = (x + 1) · x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>= x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>= (x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>· x) = (x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + x) · x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>= x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>enz…</t>
+  </si>
+  <si>
+    <r>
+      <t>Bereken enkel x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>via de deling. Daarna kan je x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>altijd vervangen bij hogere termen.</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>= (x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>· x) =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>(x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>) · x = x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>+ x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>= x + 1 + x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <r>
+      <t>16 = 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>dus mod 2 werken</t>
     </r>
   </si>
 </sst>
@@ -1450,9 +1632,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1472,8 +1651,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1772,16 +1952,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269DD275-2509-4A83-A44F-2E70DDB73CEA}">
-  <dimension ref="A1:BD87"/>
+  <dimension ref="A1:BD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" style="5" customWidth="1"/>
     <col min="4" max="5" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
@@ -1855,7 +2035,7 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -1939,71 +2119,30 @@
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6">
-        <f>C2</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:Q3" si="0">D2</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I3" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J3" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M3" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N3" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O3" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="P3" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q3" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -2041,14 +2180,10 @@
       <c r="BC3" s="7"/>
       <c r="BD3" s="7"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
-        <v>16</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2100,24 +2235,56 @@
       <c r="BC4" s="7"/>
       <c r="BD4" s="7"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -2150,28 +2317,29 @@
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
       <c r="AW5" s="4"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:56" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -2204,74 +2372,25 @@
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
       <c r="AW6" s="4"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
-      <c r="BD6" s="7"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="6">
-        <f>C2</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7:Q7" si="1">D2</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Q7" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -2304,74 +2423,28 @@
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6">
-        <f>MOD(C7*C$2, $C$4-1)</f>
+    </row>
+    <row r="8" spans="1:56" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="24">
-        <f t="shared" ref="D8:Q15" si="2">MOD(D7*D$2, $C$4-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F8" s="24">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G8" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N8" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="24">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="P8" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q8" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -2404,74 +2477,24 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
-      <c r="BA8" s="7"/>
-      <c r="BB8" s="7"/>
-      <c r="BC8" s="7"/>
-      <c r="BD8" s="7"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="24">
-        <f t="shared" ref="C9:C15" si="3">MOD(C8*C$2, $C$4-1)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="24">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F9" s="24">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G9" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N9" s="24">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="O9" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P9" s="24">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q9" s="24">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -2504,73 +2527,25 @@
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
       <c r="AW9" s="4"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
-      <c r="BD9" s="7"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="C10" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G10" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M10" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N10" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P10" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -2603,650 +2578,395 @@
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:56" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F11" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G11" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H11" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I11" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J11" s="24">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K11" s="24">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="L11" s="24">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M11" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="O11" s="24">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="P11" s="24">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="Q11" s="24">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-      <c r="BC11" s="7"/>
-      <c r="BD11" s="7"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G12" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I12" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J12" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K12" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M12" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N12" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="24">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="P12" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q12" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="B12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-      <c r="BC12" s="7"/>
-      <c r="BD12" s="7"/>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G13" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H13" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I13" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J13" s="24">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K13" s="24">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L13" s="24">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M13" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N13" s="24">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="O13" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P13" s="24">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q13" s="24">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+    </row>
+    <row r="13" spans="1:56" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="7"/>
-      <c r="BD13" s="7"/>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F14" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G14" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I14" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J14" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M14" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N14" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P14" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+    </row>
+    <row r="14" spans="1:56" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
-      <c r="BC14" s="7"/>
-      <c r="BD14" s="7"/>
-    </row>
-    <row r="15" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="24">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F15" s="24">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G15" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H15" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I15" s="24">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J15" s="24">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K15" s="24">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="L15" s="24">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M15" s="24">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N15" s="24">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="O15" s="24">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="P15" s="24">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="Q15" s="24">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+    </row>
+    <row r="15" spans="1:56" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="7"/>
-      <c r="BC15" s="7"/>
-      <c r="BD15" s="7"/>
-    </row>
-    <row r="16" spans="1:56" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+    </row>
+    <row r="16" spans="1:56" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
     </row>
-    <row r="17" spans="1:49" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+    <row r="17" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -3258,50 +2978,51 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
     </row>
     <row r="19" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -3312,45 +3033,50 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -3371,37 +3097,41 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+    <row r="21" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -3422,37 +3152,41 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="22" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3464,13 +3198,13 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="8"/>
@@ -3492,7 +3226,7 @@
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
+      <c r="AP22" s="9"/>
       <c r="AQ22" s="8"/>
       <c r="AR22" s="8"/>
       <c r="AS22" s="8"/>
@@ -3501,9 +3235,13 @@
       <c r="AV22" s="4"/>
       <c r="AW22" s="4"/>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="16"/>
+    <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3515,17 +3253,17 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="2"/>
+      <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -3543,7 +3281,7 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
-      <c r="AP23" s="8"/>
+      <c r="AP23" s="9"/>
       <c r="AQ23" s="8"/>
       <c r="AR23" s="8"/>
       <c r="AS23" s="8"/>
@@ -3552,15 +3290,12 @@
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
     </row>
-    <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -3569,13 +3304,13 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="8"/>
@@ -3597,7 +3332,7 @@
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
+      <c r="AP24" s="9"/>
       <c r="AQ24" s="8"/>
       <c r="AR24" s="8"/>
       <c r="AS24" s="8"/>
@@ -3606,30 +3341,27 @@
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
     </row>
-    <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>26</v>
-      </c>
+    <row r="25" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="8"/>
@@ -3651,7 +3383,7 @@
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
-      <c r="AP25" s="8"/>
+      <c r="AP25" s="9"/>
       <c r="AQ25" s="8"/>
       <c r="AR25" s="8"/>
       <c r="AS25" s="8"/>
@@ -3660,13 +3392,9 @@
       <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
     </row>
-    <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>28</v>
-      </c>
+    <row r="26" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3678,13 +3406,13 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="8"/>
@@ -3706,7 +3434,7 @@
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
       <c r="AO26" s="8"/>
-      <c r="AP26" s="8"/>
+      <c r="AP26" s="9"/>
       <c r="AQ26" s="8"/>
       <c r="AR26" s="8"/>
       <c r="AS26" s="8"/>
@@ -3715,31 +3443,29 @@
       <c r="AV26" s="4"/>
       <c r="AW26" s="4"/>
     </row>
-    <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>27</v>
-      </c>
+    <row r="27" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="25"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="8"/>
@@ -3770,15 +3496,13 @@
       <c r="AV27" s="4"/>
       <c r="AW27" s="4"/>
     </row>
-    <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+    <row r="28" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>1</v>
+      </c>
+      <c r="B28" s="18">
+        <v>0</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3788,17 +3512,17 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="8"/>
-      <c r="X28" s="10"/>
+      <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -3825,12 +3549,12 @@
       <c r="AV28" s="4"/>
       <c r="AW28" s="4"/>
     </row>
-    <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>37</v>
+    <row r="29" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="20">
+        <v>1</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3843,17 +3567,17 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="10"/>
+      <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
@@ -3881,11 +3605,11 @@
       <c r="AW29" s="4"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>38</v>
+      <c r="A30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="20">
+        <v>2</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3898,17 +3622,17 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="10"/>
+      <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -3936,11 +3660,11 @@
       <c r="AW30" s="4"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>41</v>
+      <c r="A31" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="20">
+        <v>3</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3963,7 +3687,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="10"/>
+      <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
@@ -3990,12 +3714,12 @@
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
     </row>
-    <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>40</v>
+    <row r="32" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="20">
+        <v>4</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4046,11 +3770,11 @@
       <c r="AW32" s="4"/>
     </row>
     <row r="33" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>39</v>
+      <c r="A33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="20">
+        <v>5</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -4073,24 +3797,24 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
       <c r="AP33" s="9"/>
       <c r="AQ33" s="8"/>
       <c r="AR33" s="8"/>
@@ -4101,11 +3825,11 @@
       <c r="AW33" s="4"/>
     </row>
     <row r="34" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>42</v>
+      <c r="A34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="20">
+        <v>6</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -4146,7 +3870,7 @@
       <c r="AM34" s="8"/>
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
-      <c r="AP34" s="9"/>
+      <c r="AP34" s="8"/>
       <c r="AQ34" s="8"/>
       <c r="AR34" s="8"/>
       <c r="AS34" s="8"/>
@@ -4155,9 +3879,13 @@
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
     </row>
-    <row r="35" spans="1:49" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+    <row r="35" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="20">
+        <v>7</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -4197,7 +3925,7 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="8"/>
       <c r="AO35" s="8"/>
-      <c r="AP35" s="9"/>
+      <c r="AP35" s="8"/>
       <c r="AQ35" s="8"/>
       <c r="AR35" s="8"/>
       <c r="AS35" s="8"/>
@@ -4206,9 +3934,13 @@
       <c r="AV35" s="4"/>
       <c r="AW35" s="4"/>
     </row>
-    <row r="36" spans="1:49" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+    <row r="36" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="20">
+        <v>8</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -4248,7 +3980,7 @@
       <c r="AM36" s="8"/>
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
-      <c r="AP36" s="9"/>
+      <c r="AP36" s="8"/>
       <c r="AQ36" s="8"/>
       <c r="AR36" s="8"/>
       <c r="AS36" s="8"/>
@@ -4257,9 +3989,13 @@
       <c r="AV36" s="4"/>
       <c r="AW36" s="4"/>
     </row>
-    <row r="37" spans="1:49" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+    <row r="37" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="20">
+        <v>9</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -4299,7 +4035,7 @@
       <c r="AM37" s="8"/>
       <c r="AN37" s="8"/>
       <c r="AO37" s="8"/>
-      <c r="AP37" s="9"/>
+      <c r="AP37" s="8"/>
       <c r="AQ37" s="8"/>
       <c r="AR37" s="8"/>
       <c r="AS37" s="8"/>
@@ -4308,11 +4044,13 @@
       <c r="AV37" s="4"/>
       <c r="AW37" s="4"/>
     </row>
-    <row r="38" spans="1:49" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="25"/>
+    <row r="38" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="20">
+        <v>10</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -4352,7 +4090,7 @@
       <c r="AM38" s="8"/>
       <c r="AN38" s="8"/>
       <c r="AO38" s="8"/>
-      <c r="AP38" s="9"/>
+      <c r="AP38" s="8"/>
       <c r="AQ38" s="8"/>
       <c r="AR38" s="8"/>
       <c r="AS38" s="8"/>
@@ -4361,13 +4099,15 @@
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
     </row>
-    <row r="39" spans="1:49" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="18">
-        <v>1</v>
-      </c>
-      <c r="B39" s="19">
-        <v>0</v>
-      </c>
+    <row r="39" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="20">
+        <v>11</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -4405,7 +4145,7 @@
       <c r="AM39" s="8"/>
       <c r="AN39" s="8"/>
       <c r="AO39" s="8"/>
-      <c r="AP39" s="9"/>
+      <c r="AP39" s="8"/>
       <c r="AQ39" s="8"/>
       <c r="AR39" s="8"/>
       <c r="AS39" s="8"/>
@@ -4414,12 +4154,12 @@
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
     </row>
-    <row r="40" spans="1:49" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="21">
-        <v>1</v>
+    <row r="40" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="20">
+        <v>12</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -4460,7 +4200,7 @@
       <c r="AM40" s="8"/>
       <c r="AN40" s="8"/>
       <c r="AO40" s="8"/>
-      <c r="AP40" s="9"/>
+      <c r="AP40" s="8"/>
       <c r="AQ40" s="8"/>
       <c r="AR40" s="8"/>
       <c r="AS40" s="8"/>
@@ -4470,11 +4210,11 @@
       <c r="AW40" s="4"/>
     </row>
     <row r="41" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="21">
-        <v>2</v>
+      <c r="A41" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="20">
+        <v>13</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -4515,7 +4255,7 @@
       <c r="AM41" s="8"/>
       <c r="AN41" s="8"/>
       <c r="AO41" s="8"/>
-      <c r="AP41" s="9"/>
+      <c r="AP41" s="8"/>
       <c r="AQ41" s="8"/>
       <c r="AR41" s="8"/>
       <c r="AS41" s="8"/>
@@ -4525,11 +4265,11 @@
       <c r="AW41" s="4"/>
     </row>
     <row r="42" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="21">
-        <v>3</v>
+      <c r="A42" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="22">
+        <v>14</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -4570,7 +4310,7 @@
       <c r="AM42" s="8"/>
       <c r="AN42" s="8"/>
       <c r="AO42" s="8"/>
-      <c r="AP42" s="9"/>
+      <c r="AP42" s="8"/>
       <c r="AQ42" s="8"/>
       <c r="AR42" s="8"/>
       <c r="AS42" s="8"/>
@@ -4579,13 +4319,9 @@
       <c r="AV42" s="4"/>
       <c r="AW42" s="4"/>
     </row>
-    <row r="43" spans="1:49" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="21">
-        <v>4</v>
-      </c>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4625,7 +4361,7 @@
       <c r="AM43" s="8"/>
       <c r="AN43" s="8"/>
       <c r="AO43" s="8"/>
-      <c r="AP43" s="9"/>
+      <c r="AP43" s="8"/>
       <c r="AQ43" s="8"/>
       <c r="AR43" s="8"/>
       <c r="AS43" s="8"/>
@@ -4634,13 +4370,9 @@
       <c r="AV43" s="4"/>
       <c r="AW43" s="4"/>
     </row>
-    <row r="44" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="21">
-        <v>5</v>
-      </c>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4661,41 +4393,37 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
-      <c r="AF44" s="11"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
-      <c r="AI44" s="11"/>
-      <c r="AJ44" s="11"/>
-      <c r="AK44" s="11"/>
-      <c r="AL44" s="11"/>
-      <c r="AM44" s="11"/>
-      <c r="AN44" s="11"/>
-      <c r="AO44" s="11"/>
-      <c r="AP44" s="9"/>
-      <c r="AQ44" s="8"/>
-      <c r="AR44" s="8"/>
-      <c r="AS44" s="8"/>
-      <c r="AT44" s="8"/>
-      <c r="AU44" s="8"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
       <c r="AV44" s="4"/>
       <c r="AW44" s="4"/>
     </row>
-    <row r="45" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="21">
-        <v>6</v>
-      </c>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4716,41 +4444,37 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="8"/>
-      <c r="AH45" s="8"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="8"/>
-      <c r="AK45" s="8"/>
-      <c r="AL45" s="8"/>
-      <c r="AM45" s="8"/>
-      <c r="AN45" s="8"/>
-      <c r="AO45" s="8"/>
-      <c r="AP45" s="8"/>
-      <c r="AQ45" s="8"/>
-      <c r="AR45" s="8"/>
-      <c r="AS45" s="8"/>
-      <c r="AT45" s="8"/>
-      <c r="AU45" s="8"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
       <c r="AV45" s="4"/>
       <c r="AW45" s="4"/>
     </row>
-    <row r="46" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="21">
-        <v>7</v>
-      </c>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4771,41 +4495,37 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="8"/>
-      <c r="AD46" s="8"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="8"/>
-      <c r="AG46" s="8"/>
-      <c r="AH46" s="8"/>
-      <c r="AI46" s="8"/>
-      <c r="AJ46" s="8"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="8"/>
-      <c r="AM46" s="8"/>
-      <c r="AN46" s="8"/>
-      <c r="AO46" s="8"/>
-      <c r="AP46" s="8"/>
-      <c r="AQ46" s="8"/>
-      <c r="AR46" s="8"/>
-      <c r="AS46" s="8"/>
-      <c r="AT46" s="8"/>
-      <c r="AU46" s="8"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="4"/>
+      <c r="AU46" s="4"/>
       <c r="AV46" s="4"/>
       <c r="AW46" s="4"/>
     </row>
-    <row r="47" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="21">
-        <v>8</v>
-      </c>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4826,41 +4546,37 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="8"/>
-      <c r="AH47" s="8"/>
-      <c r="AI47" s="8"/>
-      <c r="AJ47" s="8"/>
-      <c r="AK47" s="8"/>
-      <c r="AL47" s="8"/>
-      <c r="AM47" s="8"/>
-      <c r="AN47" s="8"/>
-      <c r="AO47" s="8"/>
-      <c r="AP47" s="8"/>
-      <c r="AQ47" s="8"/>
-      <c r="AR47" s="8"/>
-      <c r="AS47" s="8"/>
-      <c r="AT47" s="8"/>
-      <c r="AU47" s="8"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="4"/>
+      <c r="AP47" s="4"/>
+      <c r="AQ47" s="4"/>
+      <c r="AR47" s="4"/>
+      <c r="AS47" s="4"/>
+      <c r="AT47" s="4"/>
+      <c r="AU47" s="4"/>
       <c r="AV47" s="4"/>
       <c r="AW47" s="4"/>
     </row>
-    <row r="48" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="21">
-        <v>9</v>
-      </c>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -4881,41 +4597,37 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="8"/>
-      <c r="AH48" s="8"/>
-      <c r="AI48" s="8"/>
-      <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="8"/>
-      <c r="AM48" s="8"/>
-      <c r="AN48" s="8"/>
-      <c r="AO48" s="8"/>
-      <c r="AP48" s="8"/>
-      <c r="AQ48" s="8"/>
-      <c r="AR48" s="8"/>
-      <c r="AS48" s="8"/>
-      <c r="AT48" s="8"/>
-      <c r="AU48" s="8"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="4"/>
+      <c r="AU48" s="4"/>
       <c r="AV48" s="4"/>
       <c r="AW48" s="4"/>
     </row>
-    <row r="49" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="21">
-        <v>10</v>
-      </c>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4936,41 +4648,37 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="8"/>
-      <c r="AK49" s="8"/>
-      <c r="AL49" s="8"/>
-      <c r="AM49" s="8"/>
-      <c r="AN49" s="8"/>
-      <c r="AO49" s="8"/>
-      <c r="AP49" s="8"/>
-      <c r="AQ49" s="8"/>
-      <c r="AR49" s="8"/>
-      <c r="AS49" s="8"/>
-      <c r="AT49" s="8"/>
-      <c r="AU49" s="8"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
       <c r="AV49" s="4"/>
       <c r="AW49" s="4"/>
     </row>
-    <row r="50" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="21">
-        <v>11</v>
-      </c>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4991,41 +4699,37 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
-      <c r="AG50" s="8"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="8"/>
-      <c r="AJ50" s="8"/>
-      <c r="AK50" s="8"/>
-      <c r="AL50" s="8"/>
-      <c r="AM50" s="8"/>
-      <c r="AN50" s="8"/>
-      <c r="AO50" s="8"/>
-      <c r="AP50" s="8"/>
-      <c r="AQ50" s="8"/>
-      <c r="AR50" s="8"/>
-      <c r="AS50" s="8"/>
-      <c r="AT50" s="8"/>
-      <c r="AU50" s="8"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+      <c r="AP50" s="4"/>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4"/>
+      <c r="AS50" s="4"/>
+      <c r="AT50" s="4"/>
+      <c r="AU50" s="4"/>
       <c r="AV50" s="4"/>
       <c r="AW50" s="4"/>
     </row>
-    <row r="51" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="21">
-        <v>12</v>
-      </c>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -5046,41 +4750,37 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="8"/>
-      <c r="AJ51" s="8"/>
-      <c r="AK51" s="8"/>
-      <c r="AL51" s="8"/>
-      <c r="AM51" s="8"/>
-      <c r="AN51" s="8"/>
-      <c r="AO51" s="8"/>
-      <c r="AP51" s="8"/>
-      <c r="AQ51" s="8"/>
-      <c r="AR51" s="8"/>
-      <c r="AS51" s="8"/>
-      <c r="AT51" s="8"/>
-      <c r="AU51" s="8"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4"/>
+      <c r="AU51" s="4"/>
       <c r="AV51" s="4"/>
       <c r="AW51" s="4"/>
     </row>
-    <row r="52" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="21">
-        <v>13</v>
-      </c>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -5101,41 +4801,37 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="8"/>
-      <c r="AJ52" s="8"/>
-      <c r="AK52" s="8"/>
-      <c r="AL52" s="8"/>
-      <c r="AM52" s="8"/>
-      <c r="AN52" s="8"/>
-      <c r="AO52" s="8"/>
-      <c r="AP52" s="8"/>
-      <c r="AQ52" s="8"/>
-      <c r="AR52" s="8"/>
-      <c r="AS52" s="8"/>
-      <c r="AT52" s="8"/>
-      <c r="AU52" s="8"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
       <c r="AV52" s="4"/>
       <c r="AW52" s="4"/>
     </row>
-    <row r="53" spans="1:49" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="23">
-        <v>14</v>
-      </c>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -5156,31 +4852,31 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="8"/>
-      <c r="AJ53" s="8"/>
-      <c r="AK53" s="8"/>
-      <c r="AL53" s="8"/>
-      <c r="AM53" s="8"/>
-      <c r="AN53" s="8"/>
-      <c r="AO53" s="8"/>
-      <c r="AP53" s="8"/>
-      <c r="AQ53" s="8"/>
-      <c r="AR53" s="8"/>
-      <c r="AS53" s="8"/>
-      <c r="AT53" s="8"/>
-      <c r="AU53" s="8"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+      <c r="AS53" s="4"/>
+      <c r="AT53" s="4"/>
+      <c r="AU53" s="4"/>
       <c r="AV53" s="4"/>
       <c r="AW53" s="4"/>
     </row>
@@ -5207,31 +4903,31 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
-      <c r="AG54" s="8"/>
-      <c r="AH54" s="8"/>
-      <c r="AI54" s="8"/>
-      <c r="AJ54" s="8"/>
-      <c r="AK54" s="8"/>
-      <c r="AL54" s="8"/>
-      <c r="AM54" s="8"/>
-      <c r="AN54" s="8"/>
-      <c r="AO54" s="8"/>
-      <c r="AP54" s="8"/>
-      <c r="AQ54" s="8"/>
-      <c r="AR54" s="8"/>
-      <c r="AS54" s="8"/>
-      <c r="AT54" s="8"/>
-      <c r="AU54" s="8"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="4"/>
+      <c r="AT54" s="4"/>
+      <c r="AU54" s="4"/>
       <c r="AV54" s="4"/>
       <c r="AW54" s="4"/>
     </row>
@@ -6093,14 +5789,6 @@
       <c r="AM71" s="4"/>
       <c r="AN71" s="4"/>
       <c r="AO71" s="4"/>
-      <c r="AP71" s="4"/>
-      <c r="AQ71" s="4"/>
-      <c r="AR71" s="4"/>
-      <c r="AS71" s="4"/>
-      <c r="AT71" s="4"/>
-      <c r="AU71" s="4"/>
-      <c r="AV71" s="4"/>
-      <c r="AW71" s="4"/>
     </row>
     <row r="72" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
@@ -6144,14 +5832,6 @@
       <c r="AM72" s="4"/>
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
-      <c r="AP72" s="4"/>
-      <c r="AQ72" s="4"/>
-      <c r="AR72" s="4"/>
-      <c r="AS72" s="4"/>
-      <c r="AT72" s="4"/>
-      <c r="AU72" s="4"/>
-      <c r="AV72" s="4"/>
-      <c r="AW72" s="4"/>
     </row>
     <row r="73" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
@@ -6195,14 +5875,6 @@
       <c r="AM73" s="4"/>
       <c r="AN73" s="4"/>
       <c r="AO73" s="4"/>
-      <c r="AP73" s="4"/>
-      <c r="AQ73" s="4"/>
-      <c r="AR73" s="4"/>
-      <c r="AS73" s="4"/>
-      <c r="AT73" s="4"/>
-      <c r="AU73" s="4"/>
-      <c r="AV73" s="4"/>
-      <c r="AW73" s="4"/>
     </row>
     <row r="74" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
@@ -6246,14 +5918,6 @@
       <c r="AM74" s="4"/>
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
-      <c r="AP74" s="4"/>
-      <c r="AQ74" s="4"/>
-      <c r="AR74" s="4"/>
-      <c r="AS74" s="4"/>
-      <c r="AT74" s="4"/>
-      <c r="AU74" s="4"/>
-      <c r="AV74" s="4"/>
-      <c r="AW74" s="4"/>
     </row>
     <row r="75" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
@@ -6297,14 +5961,6 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="4"/>
       <c r="AO75" s="4"/>
-      <c r="AP75" s="4"/>
-      <c r="AQ75" s="4"/>
-      <c r="AR75" s="4"/>
-      <c r="AS75" s="4"/>
-      <c r="AT75" s="4"/>
-      <c r="AU75" s="4"/>
-      <c r="AV75" s="4"/>
-      <c r="AW75" s="4"/>
     </row>
     <row r="76" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
@@ -6348,535 +6004,13 @@
       <c r="AM76" s="4"/>
       <c r="AN76" s="4"/>
       <c r="AO76" s="4"/>
-      <c r="AP76" s="4"/>
-      <c r="AQ76" s="4"/>
-      <c r="AR76" s="4"/>
-      <c r="AS76" s="4"/>
-      <c r="AT76" s="4"/>
-      <c r="AU76" s="4"/>
-      <c r="AV76" s="4"/>
-      <c r="AW76" s="4"/>
-    </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
-      <c r="AI77" s="4"/>
-      <c r="AJ77" s="4"/>
-      <c r="AK77" s="4"/>
-      <c r="AL77" s="4"/>
-      <c r="AM77" s="4"/>
-      <c r="AN77" s="4"/>
-      <c r="AO77" s="4"/>
-      <c r="AP77" s="4"/>
-      <c r="AQ77" s="4"/>
-      <c r="AR77" s="4"/>
-      <c r="AS77" s="4"/>
-      <c r="AT77" s="4"/>
-      <c r="AU77" s="4"/>
-      <c r="AV77" s="4"/>
-      <c r="AW77" s="4"/>
-    </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-      <c r="AG78" s="4"/>
-      <c r="AH78" s="4"/>
-      <c r="AI78" s="4"/>
-      <c r="AJ78" s="4"/>
-      <c r="AK78" s="4"/>
-      <c r="AL78" s="4"/>
-      <c r="AM78" s="4"/>
-      <c r="AN78" s="4"/>
-      <c r="AO78" s="4"/>
-      <c r="AP78" s="4"/>
-      <c r="AQ78" s="4"/>
-      <c r="AR78" s="4"/>
-      <c r="AS78" s="4"/>
-      <c r="AT78" s="4"/>
-      <c r="AU78" s="4"/>
-      <c r="AV78" s="4"/>
-      <c r="AW78" s="4"/>
-    </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="4"/>
-      <c r="AF79" s="4"/>
-      <c r="AG79" s="4"/>
-      <c r="AH79" s="4"/>
-      <c r="AI79" s="4"/>
-      <c r="AJ79" s="4"/>
-      <c r="AK79" s="4"/>
-      <c r="AL79" s="4"/>
-      <c r="AM79" s="4"/>
-      <c r="AN79" s="4"/>
-      <c r="AO79" s="4"/>
-      <c r="AP79" s="4"/>
-      <c r="AQ79" s="4"/>
-      <c r="AR79" s="4"/>
-      <c r="AS79" s="4"/>
-      <c r="AT79" s="4"/>
-      <c r="AU79" s="4"/>
-      <c r="AV79" s="4"/>
-      <c r="AW79" s="4"/>
-    </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
-      <c r="AG80" s="4"/>
-      <c r="AH80" s="4"/>
-      <c r="AI80" s="4"/>
-      <c r="AJ80" s="4"/>
-      <c r="AK80" s="4"/>
-      <c r="AL80" s="4"/>
-      <c r="AM80" s="4"/>
-      <c r="AN80" s="4"/>
-      <c r="AO80" s="4"/>
-      <c r="AP80" s="4"/>
-      <c r="AQ80" s="4"/>
-      <c r="AR80" s="4"/>
-      <c r="AS80" s="4"/>
-      <c r="AT80" s="4"/>
-      <c r="AU80" s="4"/>
-      <c r="AV80" s="4"/>
-      <c r="AW80" s="4"/>
-    </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-      <c r="AG81" s="4"/>
-      <c r="AH81" s="4"/>
-      <c r="AI81" s="4"/>
-      <c r="AJ81" s="4"/>
-      <c r="AK81" s="4"/>
-      <c r="AL81" s="4"/>
-      <c r="AM81" s="4"/>
-      <c r="AN81" s="4"/>
-      <c r="AO81" s="4"/>
-      <c r="AP81" s="4"/>
-      <c r="AQ81" s="4"/>
-      <c r="AR81" s="4"/>
-      <c r="AS81" s="4"/>
-      <c r="AT81" s="4"/>
-      <c r="AU81" s="4"/>
-      <c r="AV81" s="4"/>
-      <c r="AW81" s="4"/>
-    </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-      <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
-      <c r="AD82" s="4"/>
-      <c r="AE82" s="4"/>
-      <c r="AF82" s="4"/>
-      <c r="AG82" s="4"/>
-      <c r="AH82" s="4"/>
-      <c r="AI82" s="4"/>
-      <c r="AJ82" s="4"/>
-      <c r="AK82" s="4"/>
-      <c r="AL82" s="4"/>
-      <c r="AM82" s="4"/>
-      <c r="AN82" s="4"/>
-      <c r="AO82" s="4"/>
-    </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
-      <c r="AE83" s="4"/>
-      <c r="AF83" s="4"/>
-      <c r="AG83" s="4"/>
-      <c r="AH83" s="4"/>
-      <c r="AI83" s="4"/>
-      <c r="AJ83" s="4"/>
-      <c r="AK83" s="4"/>
-      <c r="AL83" s="4"/>
-      <c r="AM83" s="4"/>
-      <c r="AN83" s="4"/>
-      <c r="AO83" s="4"/>
-    </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4"/>
-      <c r="AA84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
-      <c r="AE84" s="4"/>
-      <c r="AF84" s="4"/>
-      <c r="AG84" s="4"/>
-      <c r="AH84" s="4"/>
-      <c r="AI84" s="4"/>
-      <c r="AJ84" s="4"/>
-      <c r="AK84" s="4"/>
-      <c r="AL84" s="4"/>
-      <c r="AM84" s="4"/>
-      <c r="AN84" s="4"/>
-      <c r="AO84" s="4"/>
-    </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-      <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
-      <c r="AD85" s="4"/>
-      <c r="AE85" s="4"/>
-      <c r="AF85" s="4"/>
-      <c r="AG85" s="4"/>
-      <c r="AH85" s="4"/>
-      <c r="AI85" s="4"/>
-      <c r="AJ85" s="4"/>
-      <c r="AK85" s="4"/>
-      <c r="AL85" s="4"/>
-      <c r="AM85" s="4"/>
-      <c r="AN85" s="4"/>
-      <c r="AO85" s="4"/>
-    </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
-      <c r="AA86" s="4"/>
-      <c r="AB86" s="4"/>
-      <c r="AC86" s="4"/>
-      <c r="AD86" s="4"/>
-      <c r="AE86" s="4"/>
-      <c r="AF86" s="4"/>
-      <c r="AG86" s="4"/>
-      <c r="AH86" s="4"/>
-      <c r="AI86" s="4"/>
-      <c r="AJ86" s="4"/>
-      <c r="AK86" s="4"/>
-      <c r="AL86" s="4"/>
-      <c r="AM86" s="4"/>
-      <c r="AN86" s="4"/>
-      <c r="AO86" s="4"/>
-    </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4"/>
-      <c r="AA87" s="4"/>
-      <c r="AB87" s="4"/>
-      <c r="AC87" s="4"/>
-      <c r="AD87" s="4"/>
-      <c r="AE87" s="4"/>
-      <c r="AF87" s="4"/>
-      <c r="AG87" s="4"/>
-      <c r="AH87" s="4"/>
-      <c r="AI87" s="4"/>
-      <c r="AJ87" s="4"/>
-      <c r="AK87" s="4"/>
-      <c r="AL87" s="4"/>
-      <c r="AM87" s="4"/>
-      <c r="AN87" s="4"/>
-      <c r="AO87" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:Q17"/>
+  <mergeCells count="4">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:Q6"/>
+    <mergeCell ref="D3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
